--- a/src/test/resources/testData/Association.xlsx
+++ b/src/test/resources/testData/Association.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA97B13-2081-4B4D-971D-224220C2297F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1B951-F629-4221-A09B-87D35B6F3BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8496" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testData/Association.xlsx
+++ b/src/test/resources/testData/Association.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1B951-F629-4221-A09B-87D35B6F3BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFE47C-E8A2-4874-A28B-4E3E249CA953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>12345</v>
+        <v>9059613330</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
